--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/9.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/9.xlsx
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="2">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H2" s="2">
         <v>2.73</v>
